--- a/Data Pemilih FIX.xlsx
+++ b/Data Pemilih FIX.xlsx
@@ -18108,8 +18108,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D2203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2188" workbookViewId="0">
+      <selection activeCell="D2199" sqref="D2199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
